--- a/Kode/Server2/Logs/LTE-node1/2020-05-22.xlsx
+++ b/Kode/Server2/Logs/LTE-node1/2020-05-22.xlsx
@@ -483,7 +483,7 @@
         <v>0.015</v>
       </c>
       <c r="F6" t="n">
-        <v>2.67e-05</v>
+        <v>0.0267</v>
       </c>
     </row>
     <row r="7">
@@ -503,7 +503,7 @@
         <v>0.12</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00028464</v>
+        <v>0.28464</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         <v>0.33</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0007695599999999999</v>
+        <v>0.7695599999999999</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         <v>5.145</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01088682</v>
+        <v>10.88682</v>
       </c>
     </row>
     <row r="10">
@@ -563,7 +563,7 @@
         <v>3.24</v>
       </c>
       <c r="F10" t="n">
-        <v>0.006765119999999999</v>
+        <v>6.765119999999999</v>
       </c>
     </row>
     <row r="11">
@@ -583,7 +583,7 @@
         <v>3.165</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00668448</v>
+        <v>6.68448</v>
       </c>
     </row>
     <row r="12">
@@ -603,7 +603,7 @@
         <v>5.46</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0116844</v>
+        <v>11.6844</v>
       </c>
     </row>
   </sheetData>
